--- a/data/trans_camb/P17_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>12.68068595613937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23.63705310576508</v>
+        <v>23.63705310576509</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.555375039106181</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.580645712203296</v>
+        <v>3.178672461457484</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.287854586996708</v>
+        <v>4.061502685914572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.86929473616587</v>
+        <v>16.61625572620729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.194439906456403</v>
+        <v>-2.669060252798274</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.126117821642766</v>
+        <v>-4.59701358711329</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.603475456293288</v>
+        <v>6.333104864734201</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.769199279268946</v>
+        <v>3.911991025060573</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.559581762452168</v>
+        <v>2.37265108281303</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.51920665998368</v>
+        <v>13.37835335691596</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.10947966367646</v>
+        <v>20.25462895300112</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.06484558415126</v>
+        <v>20.82597524857664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31.93187316389742</v>
+        <v>31.38419360016832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.85991907958559</v>
+        <v>13.73373226141267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.06212687099336</v>
+        <v>10.17356480813471</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.18151637723498</v>
+        <v>19.68728966938228</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.71148680232914</v>
+        <v>15.27707210560397</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.09425769964632</v>
+        <v>13.26164464174934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.81376417811586</v>
+        <v>23.77972091806603</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2296179845824256</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4280125313714448</v>
+        <v>0.428012531371445</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.09092266177478636</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06026647245484839</v>
+        <v>0.05090644676927517</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06984712557028827</v>
+        <v>0.06748206095331398</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2630940755427268</v>
+        <v>0.2753379023369088</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0168361478134919</v>
+        <v>-0.03336322564042407</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05437059716677181</v>
+        <v>-0.06101076200367275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08632967285226209</v>
+        <v>0.08199066338173348</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05622895258417108</v>
+        <v>0.05942955034608057</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02353177856243954</v>
+        <v>0.03552478975968676</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2024771718415302</v>
+        <v>0.1977930173351057</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.414661327061231</v>
+        <v>0.3959838222375521</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4202496352503375</v>
+        <v>0.4166381424741005</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6400799571949551</v>
+        <v>0.6310223798841424</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.20295952232809</v>
+        <v>0.2062888595475484</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.163988492175217</v>
+        <v>0.1490710492347773</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2979428288612729</v>
+        <v>0.2890406903787757</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2455827371192157</v>
+        <v>0.2554953554208259</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2322651877339104</v>
+        <v>0.2191323883930835</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3972419677823869</v>
+        <v>0.3981098617686142</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.803695191645406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.5062704401398777</v>
+        <v>-0.5062704401398999</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.523640072008886</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.734157194996376</v>
+        <v>8.651837281493867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.337779827670494</v>
+        <v>-3.63462901611815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.848017572324588</v>
+        <v>-8.058839982540254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.290762295640215</v>
+        <v>1.720971047906435</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.89628164717295</v>
+        <v>-11.54692664565593</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.819092470455048</v>
+        <v>-6.147867742587711</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.320792009166873</v>
+        <v>7.393941170532544</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.408237439060206</v>
+        <v>-5.583311090041765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.646402641257284</v>
+        <v>-4.604159666229856</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.44726900600724</v>
+        <v>21.56640010408077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.071802913365557</v>
+        <v>9.009168943329772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.701341805271118</v>
+        <v>6.33058611312432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.99286653338861</v>
+        <v>12.68476917581416</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3351338145959224</v>
+        <v>0.03357862581982245</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.19432120926168</v>
+        <v>5.111842665464661</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.21020727360905</v>
+        <v>15.56701691529517</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.021655951735737</v>
+        <v>2.882507982740249</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.465077849014946</v>
+        <v>5.041364439433525</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.04914133388211141</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.008873576845190721</v>
+        <v>-0.008873576845191109</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.102997570954775</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1472731993142211</v>
+        <v>0.141750438885484</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05720124625790361</v>
+        <v>-0.06181858305631306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1343385663774946</v>
+        <v>-0.1360891790191999</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03192937700245835</v>
+        <v>0.02276444300903943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1455449022430107</v>
+        <v>-0.1505102175379892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07691699251294463</v>
+        <v>-0.07992404907996342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1083415584071709</v>
+        <v>0.1100277058083509</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08022643694188836</v>
+        <v>-0.08343193082021295</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06943930950257676</v>
+        <v>-0.06852953532702237</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4049974535562277</v>
+        <v>0.4028770667589146</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1709185136200475</v>
+        <v>0.1663382469416289</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1227505961603025</v>
+        <v>0.1171368278587418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1870856032560479</v>
+        <v>0.1802097571156685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.002932239279594673</v>
+        <v>0.0005950487306086146</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07407958171010495</v>
+        <v>0.07172051487029597</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2448081241902718</v>
+        <v>0.2468079080285407</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04837539558934412</v>
+        <v>0.04541454968077355</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07104762188132173</v>
+        <v>0.07936089773262658</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>6.108926488237709</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.845949758197355</v>
+        <v>4.845949758197343</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.909149792986817</v>
+        <v>4.873723087971181</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.965054123774599</v>
+        <v>3.593677829535605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.38184686935287</v>
+        <v>-0.4083902427143304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.909346238938685</v>
+        <v>4.699297107516948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.196081796597594</v>
+        <v>-3.207351196781637</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.104846313823105</v>
+        <v>-2.983394081195548</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.110921320930245</v>
+        <v>6.396744883975345</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.783918669139958</v>
+        <v>1.352343598055631</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5838742141866395</v>
+        <v>0.494486984414448</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.80428192907047</v>
+        <v>18.72012190381176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.44577996528374</v>
+        <v>17.00022063677956</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.16130656795973</v>
+        <v>14.59069968489451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.80820641714717</v>
+        <v>14.72752453949582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.619978859016483</v>
+        <v>8.030664979096391</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.187687288775206</v>
+        <v>7.438980510889362</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.05215225188852</v>
+        <v>15.05620146659003</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.58606014433052</v>
+        <v>10.62628628471172</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.26938069765003</v>
+        <v>9.057715795642457</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.08109486942107169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06432908688928338</v>
+        <v>0.06432908688928324</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06687925660467947</v>
+        <v>0.06920738926604247</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04290238555453797</v>
+        <v>0.05068577107688148</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.002854869996521262</v>
+        <v>-0.006015178167592524</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05639260017020153</v>
+        <v>0.05453617450844242</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03695984409256087</v>
+        <v>-0.03812436418700892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03553515682418253</v>
+        <v>-0.03484455889415372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07955851506935321</v>
+        <v>0.08415030638875137</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02351540899429117</v>
+        <v>0.0179557573055892</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.007732418581268914</v>
+        <v>0.00628176272084831</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2930970283720279</v>
+        <v>0.2924064658627972</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2626303153906544</v>
+        <v>0.2717900854637291</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2413414330511853</v>
+        <v>0.2297948239340644</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1867180958303889</v>
+        <v>0.1865248069330776</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09649441315964358</v>
+        <v>0.1009168079391096</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0917806905443358</v>
+        <v>0.09497478405089792</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2082473754406496</v>
+        <v>0.212095094899406</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1467684331597809</v>
+        <v>0.1458018181669677</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1285853693539744</v>
+        <v>0.1256948521412969</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>24.96617948003904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.51896313559598</v>
+        <v>8.518963135595969</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.936958570543361</v>
@@ -1297,7 +1297,7 @@
         <v>10.02171765936646</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.7556086501069537</v>
+        <v>-0.7556086501069315</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.913275130983088</v>
@@ -1306,7 +1306,7 @@
         <v>17.36815073300261</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.97731597094988</v>
+        <v>3.977315970949868</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.084393394933758</v>
+        <v>2.287221956266499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>18.10529112587937</v>
+        <v>18.33609946679852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.03133020001300929</v>
+        <v>-0.846614689151355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.255203145734119</v>
+        <v>1.373612805109925</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.448606936569751</v>
+        <v>5.023019123077159</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.85251205095395</v>
+        <v>-6.704526941177083</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.422938320608759</v>
+        <v>3.314006550905297</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.90842259635881</v>
+        <v>13.2105419485784</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.768632354096539</v>
+        <v>-1.66880382279296</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.7151971978054</v>
+        <v>15.85763563413632</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>31.42761230574013</v>
+        <v>31.03917139174163</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.70360636881</v>
+        <v>16.93691063340653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.93713194756156</v>
+        <v>12.18705270518568</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.97505476940115</v>
+        <v>15.40701147556245</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.973396828034302</v>
+        <v>5.154244670461976</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.57584336352826</v>
+        <v>12.60704674310428</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>21.53855536901689</v>
+        <v>21.82804245812691</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.920165816121973</v>
+        <v>8.856837963146072</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.41655191260928</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1421358999048142</v>
+        <v>0.142135899904814</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08977663956002242</v>
@@ -1402,7 +1402,7 @@
         <v>0.1296989343280424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.009778926130125869</v>
+        <v>-0.009778926130125582</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1150955360499739</v>
@@ -1411,7 +1411,7 @@
         <v>0.2526130566325124</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05784852746042823</v>
+        <v>0.05784852746042806</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01456213982782654</v>
+        <v>0.03674036797584861</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2810058266677246</v>
+        <v>0.2869502513739224</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0003737989863298873</v>
+        <v>-0.01458490825107074</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01579776326623947</v>
+        <v>0.01715712141829225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05626253692076926</v>
+        <v>0.0636388355247052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08486620461622929</v>
+        <v>-0.08365306070194418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0486830470893146</v>
+        <v>0.04671370737756363</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1826209678190423</v>
+        <v>0.1819060939461633</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02508299202564013</v>
+        <v>-0.02346707983669193</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2794568700500659</v>
+        <v>0.2790315182987494</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.568168427042535</v>
+        <v>0.5649714541519471</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2972830914492555</v>
+        <v>0.2992026026303648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.177557128727033</v>
+        <v>0.1665335171305446</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.201408986493164</v>
+        <v>0.2104096690740088</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06719868137482041</v>
+        <v>0.07017931378539866</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1890511303142554</v>
+        <v>0.1917578111010258</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3282877575560061</v>
+        <v>0.3305252065412379</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1339900388113343</v>
+        <v>0.1337643218041734</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.569482223489748</v>
+        <v>-2.485953592803003</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02382746780210147</v>
+        <v>0.7810472407642027</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-41.82201951986108</v>
+        <v>-42.62113833044994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9635219644128958</v>
+        <v>0.4290768027197607</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.842793135495114</v>
+        <v>3.406603985044737</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-45.92639775855522</v>
+        <v>-45.70986429647613</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.832976610071741</v>
+        <v>1.276872043812298</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.510972465092271</v>
+        <v>4.157943337806351</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-41.64297578910481</v>
+        <v>-41.84172938437698</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.13655804729829</v>
+        <v>15.35521854300353</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.44443753265852</v>
+        <v>17.68300003787797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-25.06600393371518</v>
+        <v>-23.73509413911752</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.19443046128372</v>
+        <v>15.45607959538668</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.24853282260112</v>
+        <v>18.07949712487549</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-31.5074098822868</v>
+        <v>-32.11945537598533</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.60031640300532</v>
+        <v>13.04988545632991</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.91244391580441</v>
+        <v>15.72918667976843</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-30.68668075013359</v>
+        <v>-29.81833495214689</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1345398465791265</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4884571446965002</v>
+        <v>-0.4884571446965003</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.09861611682825606</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02161376505544602</v>
+        <v>-0.03689335399520949</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.003405496965618899</v>
+        <v>0.01065923956205061</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5744680543117696</v>
+        <v>-0.5850546319037747</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01234891521409105</v>
+        <v>0.005171084820661071</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04669842979199968</v>
+        <v>0.04155914778324934</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5543366165347088</v>
+        <v>-0.5523543437139761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02375694233858117</v>
+        <v>0.0154629498905895</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05892987147657004</v>
+        <v>0.05360295090339072</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5452147661387577</v>
+        <v>-0.5421842632486433</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2507168278661618</v>
+        <v>0.2424024840953819</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2774617194073051</v>
+        <v>0.2834435733835677</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3890623383150863</v>
+        <v>-0.3778988359884309</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2028346384349454</v>
+        <v>0.2100372159831705</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.231589128858289</v>
+        <v>0.243576866998029</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4165525000220527</v>
+        <v>-0.4215520921710035</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.190402737827912</v>
+        <v>0.1848384622006665</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2280480171593688</v>
+        <v>0.2219017677371753</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4319575529850945</v>
+        <v>-0.4221868983386385</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.681048201629201</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.55279699154808</v>
+        <v>4.552796991548036</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.61658888955369</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.399010468022633</v>
+        <v>6.345117219908943</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>13.36976873568406</v>
+        <v>12.69713616123402</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.409056293283084</v>
+        <v>7.011907630593544</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.4681091214611154</v>
+        <v>1.283452520364294</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.639365971366024</v>
+        <v>-1.279453197189869</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.661820375148896</v>
+        <v>-1.177077288599937</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.295500847605852</v>
+        <v>5.593876009682979</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>7.10398864652191</v>
+        <v>7.285147289304213</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.413034455095035</v>
+        <v>5.171426565082119</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.79340614788689</v>
+        <v>22.33293331889007</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>28.01853607416119</v>
+        <v>27.22296997360293</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23.11025800376331</v>
+        <v>22.49071426547276</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.56273271289506</v>
+        <v>13.58262713559441</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.88257067305274</v>
+        <v>11.22267215684712</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>11.26700588067372</v>
+        <v>10.8248403481844</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.70717548229938</v>
+        <v>15.30443812074769</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>17.24569804043505</v>
+        <v>16.90830273055035</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>14.34547517173253</v>
+        <v>14.46869113582751</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.05734843133271337</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05577720083093928</v>
+        <v>0.05577720083093874</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1474320224529476</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.0992095901176526</v>
+        <v>0.1001456284473178</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1969621484200907</v>
+        <v>0.1912291974695334</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1145671041707701</v>
+        <v>0.1086356381804118</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.00599188993245248</v>
+        <v>0.01743271586540152</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.01914112094985827</v>
+        <v>-0.01516172555644885</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.01908855824907875</v>
+        <v>-0.01241988705924586</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07014607718902169</v>
+        <v>0.07295402001595302</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.09388141376113393</v>
+        <v>0.09881117199836985</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.05889523194694728</v>
+        <v>0.06943051545081745</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.387048836861568</v>
+        <v>0.3883142682156235</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4934974620692038</v>
+        <v>0.4753293210876176</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.404278498776337</v>
+        <v>0.3919356743687734</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1623347781270004</v>
+        <v>0.1777620645676336</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1389570919634231</v>
+        <v>0.1449805427599564</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1449394960506631</v>
+        <v>0.1402074363114</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2285681127491215</v>
+        <v>0.2212710885357672</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2522634642463758</v>
+        <v>0.2461835613542664</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2071798281544552</v>
+        <v>0.206900189103579</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.3971066787405553</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.443249289561022</v>
+        <v>-1.443249289561011</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.35588125867509</v>
+        <v>3.303047923689495</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.0143796717629</v>
+        <v>-4.805213879619044</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.843751770722991</v>
+        <v>-5.563120396059801</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.969397057662125</v>
+        <v>3.454644070101569</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.520071493914891</v>
+        <v>-5.633449979746782</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.597014065117885</v>
+        <v>-7.542480665698233</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.733527565214929</v>
+        <v>4.750309445177254</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.9669349735059</v>
+        <v>-3.019426470149821</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.959987799243466</v>
+        <v>-5.37960670911536</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.07786518493769</v>
+        <v>14.15874689702843</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.778025961101239</v>
+        <v>6.730666454291258</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.177957087426081</v>
+        <v>5.662056265050077</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.89738375496271</v>
+        <v>12.61592111654844</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.807084869663887</v>
+        <v>3.90183989125214</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.087041313438923</v>
+        <v>1.920708465557672</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.74779294400365</v>
+        <v>11.60069593056058</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.169469814127439</v>
+        <v>4.145329205583437</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.717857678908132</v>
+        <v>1.715811004474824</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.005657146310472007</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.02056040059418332</v>
+        <v>-0.02056040059418316</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.05198706875399686</v>
+        <v>0.04939701778481041</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07662831216910485</v>
+        <v>-0.07261505273829805</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08862076620826982</v>
+        <v>-0.0842926971415294</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03842880497315832</v>
+        <v>0.04288982403385607</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07006256768183934</v>
+        <v>-0.0716052455963925</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09589796162043905</v>
+        <v>-0.09512024382543259</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06458746010429529</v>
+        <v>0.0661107143853128</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.0417417413766497</v>
+        <v>-0.04176136191034627</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.068002017178666</v>
+        <v>-0.07448656514949227</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2348778631360107</v>
+        <v>0.2340761083015858</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1127310659903492</v>
+        <v>0.111340478355141</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1029684856560411</v>
+        <v>0.09343735286950776</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1602844435387631</v>
+        <v>0.1690212358704585</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05169776906159457</v>
+        <v>0.0528024257688812</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01397828796666778</v>
+        <v>0.0260866395933788</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1728442041494057</v>
+        <v>0.171110466748516</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06077538379185423</v>
+        <v>0.06155286132219639</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.03988847510076701</v>
+        <v>0.02502270660415397</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>18.20857117834925</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11.31775709280991</v>
+        <v>11.31775709280992</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.3897582397018873</v>
@@ -2153,7 +2153,7 @@
         <v>14.21996363195057</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>8.239509768975639</v>
+        <v>8.239509768975651</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.3902965627742727</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.420810623872876</v>
+        <v>-5.331935131281339</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>14.05652181502595</v>
+        <v>13.511794035966</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6.482850792097759</v>
+        <v>6.221890043088961</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.566818998750236</v>
+        <v>-4.778300781581116</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>9.84397968491764</v>
+        <v>10.03517621049762</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.079498335336051</v>
+        <v>4.106372871085464</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.452753070564232</v>
+        <v>-3.887502706958441</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>13.50559110880476</v>
+        <v>13.20525724842021</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.44102671472664</v>
+        <v>6.598482643541104</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.589880479911345</v>
+        <v>4.406310585212225</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>22.40552514581703</v>
+        <v>22.52989779472374</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>15.86623400866747</v>
+        <v>15.89859233620225</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.013738420616763</v>
+        <v>3.989021186972819</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>18.13740603663819</v>
+        <v>18.06751260150379</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>12.38821870631155</v>
+        <v>12.54055799997104</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.039166464101438</v>
+        <v>3.003228098887648</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>19.21520364136533</v>
+        <v>19.03041312552009</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>12.99534415944896</v>
+        <v>12.83371587494007</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.2791057073455031</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1734815196652716</v>
+        <v>0.1734815196652718</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.005235364808166082</v>
@@ -2258,7 +2258,7 @@
         <v>0.1910073722342786</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1106758885047038</v>
+        <v>0.110675888504704</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.005577386015290424</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.07992087416220127</v>
+        <v>-0.07898740502001023</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2094572617462726</v>
+        <v>0.1999872222822797</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.09483582455339049</v>
+        <v>0.0909740037632962</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.07303481952254211</v>
+        <v>-0.06175765612441499</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.126903590787231</v>
+        <v>0.1300797751487003</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.05388510728392664</v>
+        <v>0.05271815187777446</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.04855960864651853</v>
+        <v>-0.05421326952103465</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1876648565694821</v>
+        <v>0.1844928918658923</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.09008226747353945</v>
+        <v>0.09267682078870387</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.07213168693013371</v>
+        <v>0.07048198572893793</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3573183881800092</v>
+        <v>0.3621674791147144</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2523215522676727</v>
+        <v>0.2533600577448203</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05532057913679878</v>
+        <v>0.05550628158568463</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2543460080963741</v>
+        <v>0.2524000460639277</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1722066111051425</v>
+        <v>0.1759063840058431</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04438865833743662</v>
+        <v>0.0437743367448797</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2835513583333614</v>
+        <v>0.2808245914545143</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.192724495376603</v>
+        <v>0.1900214194433755</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>11.81544348140621</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5.282972674374364</v>
+        <v>5.282972674374387</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>5.655053060920512</v>
@@ -2367,7 +2367,7 @@
         <v>4.901741508834512</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.3066860845147734</v>
+        <v>0.3066860845147956</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>7.131508146689591</v>
@@ -2376,7 +2376,7 @@
         <v>8.317526542732312</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.80637188617846</v>
+        <v>2.806371886178449</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.313279769532576</v>
+        <v>6.32944866341665</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>9.421566603117558</v>
+        <v>9.599782586411886</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.709511096533799</v>
+        <v>2.808041301927034</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.587122542775495</v>
+        <v>3.580005956826038</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.878895028644053</v>
+        <v>3.138938768488233</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.874262644678494</v>
+        <v>-1.666827724935764</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>5.536495926866865</v>
+        <v>5.597183322328463</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>6.950105233483018</v>
+        <v>6.752041739048392</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.288943446153656</v>
+        <v>1.144311903384822</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.90432616389296</v>
+        <v>10.95803084735888</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>14.08906324289586</v>
+        <v>14.31615035906212</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.646632774798786</v>
+        <v>7.830901095930656</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.554080016471616</v>
+        <v>7.52771140222428</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>6.72049763458701</v>
+        <v>6.920103089763506</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.243633735038869</v>
+        <v>2.008322192498226</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>8.638725860424895</v>
+        <v>8.666591115093569</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>9.7258352038433</v>
+        <v>9.697862457123177</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.453397614577217</v>
+        <v>4.404058643071532</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1892809877790679</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.08463214163641308</v>
+        <v>0.08463214163641344</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.07389400181738046</v>
@@ -2472,7 +2472,7 @@
         <v>0.0640505565659869</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.004007435799870474</v>
+        <v>0.004007435799870764</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1024745799346433</v>
@@ -2481,7 +2481,7 @@
         <v>0.1195168007986346</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.04032552081007216</v>
+        <v>0.040325520810072</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.0993269532854537</v>
+        <v>0.09884424550159902</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1499706593242584</v>
+        <v>0.1529553000535902</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.04212068507497396</v>
+        <v>0.04507002304645084</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.04622258573675245</v>
+        <v>0.0461359475718311</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.03695518834689666</v>
+        <v>0.04003969157302917</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.02399693861497681</v>
+        <v>-0.02143313504247309</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.07904460391768928</v>
+        <v>0.07947126714110302</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.09884425638301961</v>
+        <v>0.09600779250855142</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.01839741972260701</v>
+        <v>0.016346644717102</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.178749683173061</v>
+        <v>0.1811522437000259</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2307966047986202</v>
+        <v>0.2367271579372315</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.124820573826781</v>
+        <v>0.1290972484632351</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.09992168053010719</v>
+        <v>0.09981703852576433</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08909369861910461</v>
+        <v>0.09181381871726355</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.0295835361592378</v>
+        <v>0.02653462466332036</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1258331038942408</v>
+        <v>0.1262254657770013</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1420495491730491</v>
+        <v>0.1412986964869319</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.06492735416438095</v>
+        <v>0.06418473875066513</v>
       </c>
     </row>
     <row r="58">
